--- a/Test_Cases_Belgium_Dropdown.xlsx
+++ b/Test_Cases_Belgium_Dropdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BBFBDA-6270-401F-A4AF-D9BEF32CB60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9048CA-9AC6-4ADE-BD94-58BEA5075B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="107">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -38,18 +38,9 @@
     <t>Verify Belgium appears after USA in country dropdown</t>
   </si>
   <si>
-    <t>Verify Belgium selectable via keyboard navigation</t>
-  </si>
-  <si>
     <t>Verify Belgium option works on Chrome browser</t>
   </si>
   <si>
-    <t>Verify Belgium option works on Firefox/Edge/Safari</t>
-  </si>
-  <si>
-    <t>Belgium reachable and selectable using keyboard</t>
-  </si>
-  <si>
     <t>Belgium selection and currency works on Chrome</t>
   </si>
   <si>
@@ -66,9 +57,6 @@
   </si>
   <si>
     <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Verify the Belgium country option is added to the country dropdown and selecting it opens a new tab showing default currency as pounds; Apply button is available and enabled.</t>
   </si>
   <si>
     <t>TS_01</t>
@@ -131,9 +119,6 @@
     <t>TC-08</t>
   </si>
   <si>
-    <t>TC-09</t>
-  </si>
-  <si>
     <t>TC-10</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>Verify Apply button is enabled by default when Belgium is selected</t>
   </si>
   <si>
-    <t>Apply button state = enabled (clickable)</t>
-  </si>
-  <si>
     <t>Verify user should be able to enabled and diabled the currency.</t>
   </si>
   <si>
@@ -242,9 +224,6 @@
     <t>Verify clicking Apply saves the selected country and currency format.</t>
   </si>
   <si>
-    <t>After Apply, the system persists country=Belgium and currency=Pound</t>
-  </si>
-  <si>
     <t>Belgium selected</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
     <t>Verify UI response time when selecting Belgium and opening the new tab is acceptable</t>
   </si>
   <si>
-    <t>New tab opens within acceptable threshold (e.g., &lt;2s)</t>
-  </si>
-  <si>
     <t>Verify MakeMyTrip URL opens successfully.</t>
   </si>
   <si>
@@ -348,6 +324,33 @@
   </si>
   <si>
     <t>Neg-TC-30</t>
+  </si>
+  <si>
+    <t>Verify Belgium country option in dropdown.</t>
+  </si>
+  <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>Verify new tab opens with default currency</t>
+  </si>
+  <si>
+    <t>TS-03</t>
+  </si>
+  <si>
+    <t>Verify Apply button availability</t>
+  </si>
+  <si>
+    <t>Apply button state should be enabled and clickable.</t>
+  </si>
+  <si>
+    <t>Country and currency should be saved after clicking on apply button.</t>
+  </si>
+  <si>
+    <t>Verify Belgium option works on Firefox/Edge/Safari etc..</t>
+  </si>
+  <si>
+    <t>New tab opens within acceptable threshold.</t>
   </si>
 </sst>
 </file>
@@ -385,15 +388,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -416,69 +425,66 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,404 +794,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.08984375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="68.08984375" style="4" customWidth="1"/>
     <col min="3" max="3" width="52.453125" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" customWidth="1"/>
     <col min="5" max="5" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="9" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B30" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B32" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="9" t="s">
+    <row r="33" spans="1:3" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="35" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
